--- a/jumia2.xlsx
+++ b/jumia2.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sqltraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6802006D-6F16-4D72-B591-DCA9F973D5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0342E3CA-2241-49ED-A7CC-38EB8640C98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" activeTab="5" xr2:uid="{C2801357-80F3-4ACC-86D3-E84F327DE64C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" activeTab="3" xr2:uid="{C2801357-80F3-4ACC-86D3-E84F327DE64C}"/>
   </bookViews>
   <sheets>
     <sheet name="branches" sheetId="11" r:id="rId1"/>
     <sheet name="suppliers" sheetId="9" r:id="rId2"/>
     <sheet name="products" sheetId="3" r:id="rId3"/>
-    <sheet name="orders" sheetId="4" r:id="rId4"/>
-    <sheet name="customers" sheetId="1" r:id="rId5"/>
+    <sheet name="customers" sheetId="1" r:id="rId4"/>
+    <sheet name="orders" sheetId="4" r:id="rId5"/>
     <sheet name="address" sheetId="2" r:id="rId6"/>
     <sheet name="delivery" sheetId="8" r:id="rId7"/>
   </sheets>
@@ -728,6 +728,79 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662009BB-378E-400A-9016-7F62E8B85081}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>712345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>723456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{14F16CC5-8CD8-4325-BDD6-264A3ADD0FD6}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{1610A23D-0F63-4918-A4B7-2530BEB3BDFA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4062CCC-9E89-45D5-B339-BD9D9E82C354}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -802,84 +875,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662009BB-378E-400A-9016-7F62E8B85081}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>712345</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>723456</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{14F16CC5-8CD8-4325-BDD6-264A3ADD0FD6}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{1610A23D-0F63-4918-A4B7-2530BEB3BDFA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AD4001-A2F7-4527-AFC9-9E0A85DD7A91}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
+    <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
